--- a/public/downloads/TESTED-FP-CLASSIC-RAW.xlsx
+++ b/public/downloads/TESTED-FP-CLASSIC-RAW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/2023 NEW RECORDS TEMPLATE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/BRITISH ROLLING  RECORDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="736" documentId="8_{406763AE-22C8-4994-A1E8-52D3B1C82B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C40627E-9267-49F5-ADFC-FED8E58E182E}"/>
+  <xr:revisionPtr revIDLastSave="752" documentId="8_{406763AE-22C8-4994-A1E8-52D3B1C82B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B66ED358-8A97-4C01-98D5-BB0F334539A9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="WOMEN OPEN" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="228">
   <si>
     <t>Weight</t>
   </si>
@@ -469,18 +469,6 @@
     <t>409.0KG</t>
   </si>
   <si>
-    <t>TOM MORRIS</t>
-  </si>
-  <si>
-    <t>MATHEM IN BOSTON</t>
-  </si>
-  <si>
-    <t>162.5KG</t>
-  </si>
-  <si>
-    <t>86.5KG</t>
-  </si>
-  <si>
     <t>MENS MARSTERS 1</t>
   </si>
   <si>
@@ -722,6 +710,21 @@
   </si>
   <si>
     <t>335.0KG</t>
+  </si>
+  <si>
+    <t>RHITANKAR SAHA ROY</t>
+  </si>
+  <si>
+    <t>DT WOURLD CHAMPIONSHIPS</t>
+  </si>
+  <si>
+    <t>127.5KG</t>
+  </si>
+  <si>
+    <t>255.0KG</t>
+  </si>
+  <si>
+    <t>552.5KG</t>
   </si>
 </sst>
 </file>
@@ -842,10 +845,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1490,7 +1489,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E29" s="12">
         <v>44962</v>
@@ -1499,7 +1498,7 @@
         <v>87</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1509,7 +1508,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E30" s="12">
         <v>44962</v>
@@ -1528,7 +1527,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E31" s="12">
         <v>44962</v>
@@ -1547,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E32" s="12">
         <v>44962</v>
@@ -1642,7 +1641,7 @@
         <v>49</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1662,7 +1661,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E39" s="12">
         <v>44695</v>
@@ -1681,7 +1680,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E40" s="12">
         <v>44695</v>
@@ -1690,7 +1689,7 @@
         <v>49</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -1700,7 +1699,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E41" s="12">
         <v>44695</v>
@@ -1709,7 +1708,7 @@
         <v>49</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -1719,7 +1718,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E42" s="12">
         <v>44695</v>
@@ -1728,7 +1727,7 @@
         <v>49</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -1934,16 +1933,16 @@
         <v>7</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E59" s="11">
         <v>44877</v>
       </c>
       <c r="F59" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -1951,16 +1950,16 @@
         <v>8</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E60" s="11">
         <v>44877</v>
       </c>
       <c r="F60" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -1968,13 +1967,13 @@
         <v>9</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E61" s="11">
         <v>44877</v>
       </c>
       <c r="F61" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>70</v>
@@ -1985,16 +1984,16 @@
         <v>10</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E62" s="11">
         <v>44877</v>
       </c>
       <c r="F62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +2019,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -2610,7 +2609,7 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C63" s="1"/>
     </row>
@@ -3182,7 +3181,7 @@
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C124" s="1"/>
     </row>
@@ -3379,7 +3378,7 @@
         <v>7</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E151" s="11">
         <v>44962</v>
@@ -3398,7 +3397,7 @@
         <v>8</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E152" s="11">
         <v>44962</v>
@@ -3417,7 +3416,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E153" s="11">
         <v>44962</v>
@@ -3426,7 +3425,7 @@
         <v>87</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -3436,7 +3435,7 @@
         <v>10</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E154" s="11">
         <v>44962</v>
@@ -3445,7 +3444,7 @@
         <v>87</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -3462,7 +3461,7 @@
         <v>7</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E156" s="11">
         <v>44695</v>
@@ -3471,7 +3470,7 @@
         <v>49</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
@@ -3481,7 +3480,7 @@
         <v>8</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E157" s="11">
         <v>44695</v>
@@ -3500,7 +3499,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E158" s="11">
         <v>44695</v>
@@ -3509,7 +3508,7 @@
         <v>49</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
@@ -3519,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E159" s="11">
         <v>44695</v>
@@ -3580,7 +3579,7 @@
         <v>7</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E166" s="11">
         <v>44695</v>
@@ -3589,7 +3588,7 @@
         <v>49</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
@@ -3599,7 +3598,7 @@
         <v>8</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E167" s="11">
         <v>44695</v>
@@ -3608,7 +3607,7 @@
         <v>49</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
@@ -3618,7 +3617,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E168" s="11">
         <v>44695</v>
@@ -3627,7 +3626,7 @@
         <v>49</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
@@ -3637,7 +3636,7 @@
         <v>10</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E169" s="11">
         <v>44695</v>
@@ -3646,7 +3645,7 @@
         <v>49</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
@@ -3698,7 +3697,7 @@
         <v>7</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E176" s="11">
         <v>44695</v>
@@ -3717,7 +3716,7 @@
         <v>8</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E177" s="11">
         <v>44695</v>
@@ -3726,7 +3725,7 @@
         <v>49</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
@@ -3736,7 +3735,7 @@
         <v>9</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E178" s="11">
         <v>44695</v>
@@ -3745,7 +3744,7 @@
         <v>49</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
@@ -3755,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E179" s="11">
         <v>44695</v>
@@ -3764,7 +3763,7 @@
         <v>49</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
@@ -3810,7 +3809,7 @@
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C186" s="1"/>
     </row>
@@ -4182,7 +4181,7 @@
         <v>7</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E238" s="11">
         <v>44962</v>
@@ -4191,7 +4190,7 @@
         <v>87</v>
       </c>
       <c r="G238" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
@@ -4201,7 +4200,7 @@
         <v>8</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E239" s="11">
         <v>44962</v>
@@ -4220,7 +4219,7 @@
         <v>9</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E240" s="11">
         <v>44962</v>
@@ -4239,7 +4238,7 @@
         <v>10</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E241" s="11">
         <v>44962</v>
@@ -4294,7 +4293,7 @@
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="2"/>
       <c r="B248" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C248" s="1"/>
     </row>
@@ -4730,7 +4729,7 @@
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="2"/>
       <c r="B310" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C310" s="1"/>
     </row>
@@ -5166,7 +5165,7 @@
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="2"/>
       <c r="B372" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C372" s="1"/>
     </row>
@@ -5602,7 +5601,7 @@
     <row r="434" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A434" s="2"/>
       <c r="B434" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C434" s="1"/>
     </row>
@@ -6033,7 +6032,7 @@
     <row r="495" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A495" s="2"/>
       <c r="B495" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C495" s="1"/>
     </row>
@@ -6473,8 +6472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306999F4-8918-254E-B53D-F64ABC5BF343}">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J2:L32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6830,16 +6829,16 @@
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="E28" s="13">
-        <v>45010</v>
+        <v>45219</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -6849,16 +6848,16 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="E29" s="13">
-        <v>45010</v>
+        <v>45219</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -6868,16 +6867,16 @@
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="E30" s="13">
-        <v>45010</v>
+        <v>45219</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -6887,16 +6886,16 @@
         <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="E31" s="13">
-        <v>45010</v>
+        <v>45219</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>141</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -6917,7 +6916,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E33" s="13">
         <v>44962</v>
@@ -6936,7 +6935,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E34" s="13">
         <v>44962</v>
@@ -6955,7 +6954,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E35" s="13">
         <v>44962</v>
@@ -6974,7 +6973,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E36" s="13">
         <v>44962</v>
@@ -7201,13 +7200,13 @@
         <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E53" s="13">
         <v>44877</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>89</v>
@@ -7220,13 +7219,13 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E54" s="13">
         <v>44877</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>73</v>
@@ -7239,16 +7238,16 @@
         <v>9</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E55" s="13">
         <v>44877</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -7258,16 +7257,16 @@
         <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E56" s="13">
         <v>44877</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -7927,7 +7926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7517E2C-6F9F-784C-B257-599DEE4B6BE5}">
   <dimension ref="A1:G477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="117" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScale="117" workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
@@ -7941,7 +7940,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -8365,7 +8364,7 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C53" s="1"/>
     </row>
@@ -8508,7 +8507,7 @@
         <v>7</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E70" s="11">
         <v>44962</v>
@@ -8517,7 +8516,7 @@
         <v>87</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -8535,7 +8534,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E72" s="11">
         <v>44962</v>
@@ -8963,7 +8962,7 @@
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C115" s="1"/>
     </row>
@@ -9376,7 +9375,7 @@
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C166" s="1"/>
     </row>
@@ -9801,10 +9800,10 @@
         <v>7</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F218" s="9" t="s">
         <v>49</v>
@@ -9820,10 +9819,10 @@
         <v>8</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F219" s="9" t="s">
         <v>49</v>
@@ -9839,10 +9838,10 @@
         <v>9</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F220" s="9" t="s">
         <v>49</v>
@@ -9858,16 +9857,16 @@
         <v>10</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F221" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
@@ -9879,7 +9878,7 @@
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C223" s="1"/>
     </row>
@@ -10292,7 +10291,7 @@
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="2"/>
       <c r="B274" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C274" s="1"/>
     </row>
@@ -10705,7 +10704,7 @@
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" s="2"/>
       <c r="B325" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C325" s="1"/>
     </row>
@@ -11118,7 +11117,7 @@
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" s="2"/>
       <c r="B376" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C376" s="1"/>
     </row>
@@ -11531,7 +11530,7 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" s="2"/>
       <c r="B427" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C427" s="1"/>
     </row>
@@ -12578,13 +12577,13 @@
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E33" s="13">
         <v>44626</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>139</v>
@@ -12597,13 +12596,13 @@
         <v>7</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L33" s="14">
         <v>44695</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>101</v>
@@ -12616,16 +12615,16 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E34" s="13">
         <v>44626</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="1"/>
@@ -12633,13 +12632,13 @@
         <v>8</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L34" s="14">
         <v>44695</v>
       </c>
       <c r="M34" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>58</v>
@@ -12652,13 +12651,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E35" s="13">
         <v>44626</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>54</v>
@@ -12669,13 +12668,13 @@
         <v>9</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L35" s="14">
         <v>44695</v>
       </c>
       <c r="M35" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>70</v>
@@ -12688,16 +12687,16 @@
         <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E36" s="13">
         <v>44626</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="1"/>
@@ -12705,16 +12704,16 @@
         <v>10</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L36" s="14">
         <v>44695</v>
       </c>
       <c r="M36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
@@ -12738,7 +12737,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E38" s="13">
         <v>44962</v>
@@ -12757,13 +12756,13 @@
         <v>7</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L38" s="14">
         <v>44695</v>
       </c>
       <c r="M38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>98</v>
@@ -12776,7 +12775,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E39" s="13">
         <v>44962</v>
@@ -12793,13 +12792,13 @@
         <v>8</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L39" s="14">
         <v>44695</v>
       </c>
       <c r="M39" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>115</v>
@@ -12812,7 +12811,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E40" s="13">
         <v>44962</v>
@@ -12829,16 +12828,16 @@
         <v>9</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L40" s="14">
         <v>44695</v>
       </c>
       <c r="M40" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -12848,7 +12847,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E41" s="13">
         <v>44962</v>
@@ -12857,7 +12856,7 @@
         <v>87</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
@@ -12865,13 +12864,13 @@
         <v>10</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L41" s="14">
         <v>44695</v>
       </c>
       <c r="M41" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>75</v>
@@ -12989,16 +12988,16 @@
         <v>7</v>
       </c>
       <c r="K48" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L48" s="14">
         <v>44695</v>
       </c>
       <c r="M48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N48" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -13017,13 +13016,13 @@
         <v>8</v>
       </c>
       <c r="K49" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L49" s="14">
         <v>44695</v>
       </c>
       <c r="M49" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N49" t="s">
         <v>73</v>
@@ -13045,16 +13044,16 @@
         <v>9</v>
       </c>
       <c r="K50" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L50" s="14">
         <v>44695</v>
       </c>
       <c r="M50" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N50" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -13073,16 +13072,16 @@
         <v>10</v>
       </c>
       <c r="K51" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L51" s="14">
         <v>44695</v>
       </c>
       <c r="M51" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N51" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -13819,11 +13818,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C1" s="1"/>
       <c r="I1" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -14260,7 +14259,7 @@
         <v>7</v>
       </c>
       <c r="K28" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L28" s="14">
         <v>44962</v>
@@ -14269,7 +14268,7 @@
         <v>87</v>
       </c>
       <c r="N28" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -14287,7 +14286,7 @@
         <v>8</v>
       </c>
       <c r="K29" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L29" s="14">
         <v>44962</v>
@@ -14314,7 +14313,7 @@
         <v>9</v>
       </c>
       <c r="K30" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L30" s="14">
         <v>44962</v>
@@ -14341,7 +14340,7 @@
         <v>10</v>
       </c>
       <c r="K31" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L31" s="14">
         <v>44962</v>
@@ -14711,16 +14710,16 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E58" s="14">
         <v>44962</v>
       </c>
       <c r="F58" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G58" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I58" t="s">
         <v>40</v>
@@ -14734,16 +14733,16 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E59" s="14">
         <v>44962</v>
       </c>
       <c r="F59" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G59" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>8</v>
@@ -14754,13 +14753,13 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E60" s="14">
         <v>44962</v>
       </c>
       <c r="F60" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G60" t="s">
         <v>65</v>
@@ -14774,16 +14773,16 @@
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E61" s="14">
         <v>44962</v>
       </c>
       <c r="F61" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G61" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>10</v>
@@ -15669,7 +15668,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E33" s="14">
         <v>44695</v>
@@ -15678,7 +15677,7 @@
         <v>49</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -15688,7 +15687,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E34" s="14">
         <v>44695</v>
@@ -15707,7 +15706,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E35" s="14">
         <v>44695</v>
@@ -15716,7 +15715,7 @@
         <v>49</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -15726,7 +15725,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E36" s="14">
         <v>44695</v>
@@ -15735,7 +15734,7 @@
         <v>49</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -16873,7 +16872,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E18" s="13">
         <v>44962</v>
@@ -16882,7 +16881,7 @@
         <v>87</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -16903,7 +16902,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E20" s="13">
         <v>44962</v>
@@ -16912,7 +16911,7 @@
         <v>87</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -17196,13 +17195,13 @@
         <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E43" s="13">
         <v>44877</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>104</v>
@@ -17215,16 +17214,16 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E44" s="13">
         <v>44877</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -17234,7 +17233,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E45" s="13">
         <v>44836</v>
@@ -17253,16 +17252,16 @@
         <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E46" s="13">
         <v>44877</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
